--- a/Departments/WLL.xlsx
+++ b/Departments/WLL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89B97945-0B68-43AB-B3A8-1509FA499C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E739DF-DD61-4568-B9AE-857EBB71FAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D03E5B61-156B-41CE-9491-B97DAB6FE656}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{D03E5B61-156B-41CE-9491-B97DAB6FE656}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -766,6 +760,12 @@
   </si>
   <si>
     <t>EDUCATION</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I91"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1139,2497 +1139,2497 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
         <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
         <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
         <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
         <v>61</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
         <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
         <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
         <v>69</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
         <v>74</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
         <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
         <v>78</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
         <v>83</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
         <v>86</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
         <v>89</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
         <v>96</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
         <v>101</v>
       </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" t="s">
-        <v>103</v>
-      </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
         <v>106</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
         <v>113</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" t="s">
-        <v>103</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I36" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
         <v>116</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
         <v>129</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s">
-        <v>19</v>
-      </c>
-      <c r="I43" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" t="s">
         <v>138</v>
       </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
         <v>139</v>
-      </c>
-      <c r="E47" t="s">
-        <v>140</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
         <v>145</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" t="s">
-        <v>146</v>
-      </c>
-      <c r="E50" t="s">
-        <v>143</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s">
         <v>148</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
         <v>151</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" t="s">
-        <v>152</v>
-      </c>
-      <c r="E52" t="s">
-        <v>148</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s">
         <v>156</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" t="s">
-        <v>157</v>
-      </c>
-      <c r="E54" t="s">
-        <v>154</v>
-      </c>
-      <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" t="s">
         <v>165</v>
       </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s">
         <v>166</v>
-      </c>
-      <c r="E58" t="s">
-        <v>167</v>
-      </c>
-      <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s">
         <v>192</v>
-      </c>
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" t="s">
-        <v>193</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E76" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E79" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>209</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s">
         <v>211</v>
-      </c>
-      <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" t="s">
-        <v>212</v>
-      </c>
-      <c r="E80" t="s">
-        <v>48</v>
-      </c>
-      <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>22</v>
-      </c>
-      <c r="H80" t="s">
-        <v>19</v>
-      </c>
-      <c r="I80" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>212</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>213</v>
+      </c>
+      <c r="E81" t="s">
+        <v>49</v>
+      </c>
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s">
         <v>214</v>
-      </c>
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" t="s">
-        <v>215</v>
-      </c>
-      <c r="E81" t="s">
-        <v>51</v>
-      </c>
-      <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>216</v>
+      </c>
+      <c r="E82" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s">
         <v>217</v>
-      </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" t="s">
-        <v>218</v>
-      </c>
-      <c r="E82" t="s">
-        <v>59</v>
-      </c>
-      <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I82" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I83" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>220</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s">
         <v>222</v>
-      </c>
-      <c r="B84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" t="s">
-        <v>223</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" t="s">
-        <v>19</v>
-      </c>
-      <c r="I84" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>223</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>224</v>
+      </c>
+      <c r="E85" t="s">
+        <v>220</v>
+      </c>
+      <c r="F85" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" t="s">
         <v>225</v>
-      </c>
-      <c r="B85" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" t="s">
-        <v>226</v>
-      </c>
-      <c r="E85" t="s">
-        <v>222</v>
-      </c>
-      <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" t="s">
-        <v>19</v>
-      </c>
-      <c r="I85" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>226</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>227</v>
+      </c>
+      <c r="E86" t="s">
+        <v>220</v>
+      </c>
+      <c r="F86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
         <v>228</v>
-      </c>
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" t="s">
-        <v>229</v>
-      </c>
-      <c r="E86" t="s">
-        <v>222</v>
-      </c>
-      <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" t="s">
-        <v>19</v>
-      </c>
-      <c r="I86" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E88" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E89" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>235</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>236</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
         <v>237</v>
-      </c>
-      <c r="B90" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" t="s">
-        <v>238</v>
-      </c>
-      <c r="E90" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" t="s">
-        <v>19</v>
-      </c>
-      <c r="I90" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
+        <v>238</v>
+      </c>
+      <c r="D91" t="s">
+        <v>239</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>238</v>
+      </c>
+      <c r="H91" t="s">
         <v>240</v>
-      </c>
-      <c r="D91" t="s">
-        <v>241</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>240</v>
-      </c>
-      <c r="H91" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/WLL.xlsx
+++ b/Departments/WLL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E739DF-DD61-4568-B9AE-857EBB71FAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B23457-6383-4583-A5D5-38611B19426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{D03E5B61-156B-41CE-9491-B97DAB6FE656}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D03E5B61-156B-41CE-9491-B97DAB6FE656}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="245">
   <si>
     <t>Course_Code</t>
   </si>
@@ -129,9 +129,6 @@
     <t>CHIN290</t>
   </si>
   <si>
-    <t>REQ-CHIN 290 or equivalent. This course is for students of Chinese origin who have near native speaking ability in Chinese (Mandarin or other dialects), but basic knowledge of written Chinese.</t>
-  </si>
-  <si>
     <t>GERM110</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>PUNJ100</t>
   </si>
   <si>
-    <t>REQ-PUNJ 100 or equivalent.  Students with credit for LANG 148 Special Topics - Intro to Punjabi II may not take this course for further credit. Students with credit for PUNJ 101 may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>SPAN100</t>
   </si>
   <si>
@@ -330,12 +324,6 @@
     <t>REQ-PERS 100 (or PERS 118) or instructor permission. All students must attend a placement meeting and get department approval. Students with credit for LANG 168 on this topic or PERS 168 may not take for further credit. Breadth-Humanities.</t>
   </si>
   <si>
-    <t>PORT100</t>
-  </si>
-  <si>
-    <t>PORT 100 - STT-Introductory Brazilian Portuguese I</t>
-  </si>
-  <si>
     <t>WL103W</t>
   </si>
   <si>
@@ -426,9 +414,6 @@
     <t>WL 400 - Early Literary Cultures</t>
   </si>
   <si>
-    <t>REQ-60 units including two 300-level courses in world literature, English, and/or humanities.</t>
-  </si>
-  <si>
     <t>WL402</t>
   </si>
   <si>
@@ -507,9 +492,6 @@
     <t>CHIN 191 - Heritage Mandarin Chinese II</t>
   </si>
   <si>
-    <t>REQ-CHIN 190 or equivalent. This course is for students of Chinese origin who have near native speaking ability in Chinese (Mandarin or other dialects), but limited knowledge of written Chinese. Breadth-Humanities.</t>
-  </si>
-  <si>
     <t>CHIN 200 - Mandarin Chinese III</t>
   </si>
   <si>
@@ -519,9 +501,6 @@
     <t>CHIN 290 - Heritage Mandarin Chinese III</t>
   </si>
   <si>
-    <t>REQ-CHIN 191 or equivalent. This course is for students of Chinese origin who have near native speaking ability in Chinese (Mandarin or other dialects), but basic knowledge of written Chinese.</t>
-  </si>
-  <si>
     <t>CHIN330</t>
   </si>
   <si>
@@ -744,15 +723,6 @@
     <t>SPAN 210 - Intermediate Spanish II</t>
   </si>
   <si>
-    <t>SPAN301</t>
-  </si>
-  <si>
-    <t>SPAN 301 - Advanced Spanish Grammar and Writing</t>
-  </si>
-  <si>
-    <t>REQ-SPAN 202.</t>
-  </si>
-  <si>
     <t>EDUC</t>
   </si>
   <si>
@@ -766,6 +736,42 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>REQ-CHIN 190 or permission of the course instructor. Breadth-Humanities</t>
+  </si>
+  <si>
+    <t>REQ-CHIN 191 or permission of the course instructor.</t>
+  </si>
+  <si>
+    <t>REQ-CHIN 290 or permission of the course instructor.</t>
+  </si>
+  <si>
+    <t>PORT110</t>
+  </si>
+  <si>
+    <t>PORT 110 - STT-Introductory Brazilian Portuguese II</t>
+  </si>
+  <si>
+    <t>REQ-PORT 100 or equivalent.</t>
+  </si>
+  <si>
+    <t>REQ-PUNJ 100 or equivalent.  Students with credit for LANG 148 Special Topics - Intro to Punjabi II may not take this course for further credit. Students with credit for PUNJ 101 may not take this course for further credit. Breadth-Humanities</t>
+  </si>
+  <si>
+    <t>SPAN300</t>
+  </si>
+  <si>
+    <t>SPAN 300 - Advanced Spanish: Language and Culture</t>
+  </si>
+  <si>
+    <t>REQ-SPAN 210 (or SPAN 202) or equivalent proficiency.  Students with credit for SPAN 301 may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>WL402W</t>
+  </si>
+  <si>
+    <t>WL 402W - Stories of Modernity</t>
   </si>
 </sst>
 </file>
@@ -1117,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D3FC6C-C451-4837-8BBC-050EC26C3DC8}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1139,10 +1145,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1185,36 +1191,33 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1223,7 +1226,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1240,7 +1243,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1249,10 +1252,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1264,12 +1267,12 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1278,10 +1281,10 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1291,14 +1294,11 @@
       </c>
       <c r="H6" t="s">
         <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1307,10 +1307,10 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1322,12 +1322,12 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1336,10 +1336,10 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1349,14 +1349,11 @@
       </c>
       <c r="H8" t="s">
         <v>17</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1365,10 +1362,10 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1378,11 +1375,14 @@
       </c>
       <c r="H9" t="s">
         <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1391,10 +1391,10 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1404,11 +1404,14 @@
       </c>
       <c r="H10" t="s">
         <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1417,10 +1420,10 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1430,14 +1433,11 @@
       </c>
       <c r="H11" t="s">
         <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1446,10 +1446,10 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1461,12 +1461,12 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1475,10 +1475,10 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1490,12 +1490,12 @@
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1504,10 +1504,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1519,12 +1519,12 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1533,10 +1533,10 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1546,11 +1546,14 @@
       </c>
       <c r="H15" t="s">
         <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1559,10 +1562,10 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1572,11 +1575,14 @@
       </c>
       <c r="H16" t="s">
         <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1585,10 +1591,10 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1600,12 +1606,12 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1614,10 +1620,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1629,12 +1635,12 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1643,10 +1649,10 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1656,14 +1662,11 @@
       </c>
       <c r="H19" t="s">
         <v>17</v>
-      </c>
-      <c r="I19" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1672,7 +1675,7 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1685,11 +1688,14 @@
       </c>
       <c r="H20" t="s">
         <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1698,10 +1704,10 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1713,12 +1719,12 @@
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1727,10 +1733,10 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -1742,12 +1748,12 @@
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1756,7 +1762,7 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -1769,11 +1775,14 @@
       </c>
       <c r="H23" t="s">
         <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1782,10 +1791,10 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -1795,14 +1804,11 @@
       </c>
       <c r="H24" t="s">
         <v>17</v>
-      </c>
-      <c r="I24" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1811,10 +1817,10 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1826,12 +1832,12 @@
         <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1840,10 +1846,10 @@
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1855,12 +1861,12 @@
         <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -1869,10 +1875,10 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1886,7 +1892,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1895,7 +1901,7 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -1912,7 +1918,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1921,10 +1927,10 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1936,12 +1942,12 @@
         <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1950,10 +1956,10 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1963,11 +1969,14 @@
       </c>
       <c r="H30" t="s">
         <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1976,10 +1985,10 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1989,11 +1998,14 @@
       </c>
       <c r="H31" t="s">
         <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -2002,10 +2014,10 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -2015,11 +2027,14 @@
       </c>
       <c r="H32" t="s">
         <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -2028,7 +2043,7 @@
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -2043,12 +2058,12 @@
         <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -2057,10 +2072,10 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -2070,11 +2085,14 @@
       </c>
       <c r="H34" t="s">
         <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -2083,7 +2101,7 @@
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -2100,7 +2118,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -2109,10 +2127,10 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -2122,14 +2140,11 @@
       </c>
       <c r="H36" t="s">
         <v>17</v>
-      </c>
-      <c r="I36" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -2138,10 +2153,10 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -2153,12 +2168,12 @@
         <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>116</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -2167,7 +2182,7 @@
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
@@ -2180,11 +2195,14 @@
       </c>
       <c r="H38" t="s">
         <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -2193,10 +2211,10 @@
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -2206,11 +2224,14 @@
       </c>
       <c r="H39" t="s">
         <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -2219,7 +2240,7 @@
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
@@ -2232,11 +2253,14 @@
       </c>
       <c r="H40" t="s">
         <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -2245,10 +2269,10 @@
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
@@ -2258,11 +2282,14 @@
       </c>
       <c r="H41" t="s">
         <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -2271,10 +2298,10 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -2286,12 +2313,12 @@
         <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -2300,7 +2327,7 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
         <v>12</v>
@@ -2315,12 +2342,12 @@
         <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -2329,7 +2356,7 @@
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
@@ -2346,7 +2373,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -2355,7 +2382,7 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -2372,7 +2399,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -2381,10 +2408,10 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -2394,11 +2421,14 @@
       </c>
       <c r="H46" t="s">
         <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -2407,10 +2437,10 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -2422,12 +2452,12 @@
         <v>17</v>
       </c>
       <c r="I47" t="s">
-        <v>139</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -2436,7 +2466,7 @@
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2449,11 +2479,14 @@
       </c>
       <c r="H48" t="s">
         <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -2462,10 +2495,10 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -2475,11 +2508,14 @@
       </c>
       <c r="H49" t="s">
         <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2488,10 +2524,10 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -2501,14 +2537,11 @@
       </c>
       <c r="H50" t="s">
         <v>17</v>
-      </c>
-      <c r="I50" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2517,10 +2550,10 @@
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -2532,12 +2565,12 @@
         <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2546,10 +2579,10 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -2559,14 +2592,11 @@
       </c>
       <c r="H52" t="s">
         <v>17</v>
-      </c>
-      <c r="I52" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -2575,10 +2605,10 @@
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
@@ -2592,7 +2622,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -2601,10 +2631,10 @@
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="E54" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
@@ -2616,12 +2646,12 @@
         <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>156</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2630,10 +2660,10 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -2645,12 +2675,12 @@
         <v>17</v>
       </c>
       <c r="I55" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2659,10 +2689,10 @@
         <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="E56" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
@@ -2672,14 +2702,11 @@
       </c>
       <c r="H56" t="s">
         <v>17</v>
-      </c>
-      <c r="I56" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -2688,10 +2715,10 @@
         <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
@@ -2701,14 +2728,11 @@
       </c>
       <c r="H57" t="s">
         <v>17</v>
-      </c>
-      <c r="I57" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -2717,10 +2741,10 @@
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="E58" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
@@ -2730,14 +2754,11 @@
       </c>
       <c r="H58" t="s">
         <v>17</v>
-      </c>
-      <c r="I58" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -2746,10 +2767,10 @@
         <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
@@ -2763,7 +2784,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -2772,10 +2793,10 @@
         <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
@@ -2785,14 +2806,11 @@
       </c>
       <c r="H60" t="s">
         <v>17</v>
-      </c>
-      <c r="I60" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -2801,10 +2819,10 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
@@ -2814,14 +2832,11 @@
       </c>
       <c r="H61" t="s">
         <v>17</v>
-      </c>
-      <c r="I61" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -2830,10 +2845,10 @@
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="E62" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
@@ -2843,11 +2858,14 @@
       </c>
       <c r="H62" t="s">
         <v>17</v>
+      </c>
+      <c r="I62" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -2856,10 +2874,10 @@
         <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E63" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
         <v>12</v>
@@ -2873,7 +2891,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -2882,7 +2900,7 @@
         <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E64" t="s">
         <v>12</v>
@@ -2899,7 +2917,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -2908,7 +2926,7 @@
         <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -2925,7 +2943,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -2934,7 +2952,7 @@
         <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
@@ -2951,7 +2969,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -2960,10 +2978,10 @@
         <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E67" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F67" t="s">
         <v>12</v>
@@ -2975,12 +2993,12 @@
         <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -2989,10 +3007,10 @@
         <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
@@ -3002,11 +3020,14 @@
       </c>
       <c r="H68" t="s">
         <v>17</v>
+      </c>
+      <c r="I68" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -3015,7 +3036,7 @@
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -3032,7 +3053,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -3041,7 +3062,7 @@
         <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -3054,14 +3075,11 @@
       </c>
       <c r="H70" t="s">
         <v>17</v>
-      </c>
-      <c r="I70" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -3070,10 +3088,10 @@
         <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
@@ -3085,12 +3103,12 @@
         <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -3099,7 +3117,7 @@
         <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="E72" t="s">
         <v>12</v>
@@ -3116,7 +3134,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -3125,7 +3143,7 @@
         <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E73" t="s">
         <v>12</v>
@@ -3138,11 +3156,14 @@
       </c>
       <c r="H73" t="s">
         <v>17</v>
+      </c>
+      <c r="I73" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -3151,7 +3172,7 @@
         <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -3164,11 +3185,14 @@
       </c>
       <c r="H74" t="s">
         <v>17</v>
+      </c>
+      <c r="I74" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -3177,7 +3201,7 @@
         <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
@@ -3194,7 +3218,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -3203,10 +3227,10 @@
         <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E76" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
@@ -3220,7 +3244,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -3229,7 +3253,7 @@
         <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E77" t="s">
         <v>12</v>
@@ -3246,7 +3270,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -3255,7 +3279,7 @@
         <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="E78" t="s">
         <v>12</v>
@@ -3272,7 +3296,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -3281,10 +3305,10 @@
         <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="E79" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
@@ -3298,7 +3322,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -3307,10 +3331,10 @@
         <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
         <v>12</v>
@@ -3320,14 +3344,11 @@
       </c>
       <c r="H80" t="s">
         <v>17</v>
-      </c>
-      <c r="I80" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -3336,10 +3357,10 @@
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="E81" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
         <v>12</v>
@@ -3351,12 +3372,12 @@
         <v>17</v>
       </c>
       <c r="I81" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -3365,10 +3386,10 @@
         <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="E82" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
         <v>12</v>
@@ -3378,14 +3399,11 @@
       </c>
       <c r="H82" t="s">
         <v>17</v>
-      </c>
-      <c r="I82" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -3394,7 +3412,7 @@
         <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E83" t="s">
         <v>12</v>
@@ -3407,14 +3425,11 @@
       </c>
       <c r="H83" t="s">
         <v>17</v>
-      </c>
-      <c r="I83" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -3423,7 +3438,7 @@
         <v>17</v>
       </c>
       <c r="D84" t="s">
-        <v>221</v>
+        <v>126</v>
       </c>
       <c r="E84" t="s">
         <v>12</v>
@@ -3436,14 +3451,11 @@
       </c>
       <c r="H84" t="s">
         <v>17</v>
-      </c>
-      <c r="I84" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -3452,10 +3464,10 @@
         <v>17</v>
       </c>
       <c r="D85" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="E85" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
@@ -3465,14 +3477,11 @@
       </c>
       <c r="H85" t="s">
         <v>17</v>
-      </c>
-      <c r="I85" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -3481,10 +3490,10 @@
         <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E86" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
         <v>12</v>
@@ -3494,14 +3503,11 @@
       </c>
       <c r="H86" t="s">
         <v>17</v>
-      </c>
-      <c r="I86" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -3510,10 +3516,10 @@
         <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F87" t="s">
         <v>12</v>
@@ -3527,7 +3533,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -3536,10 +3542,10 @@
         <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="E88" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
         <v>12</v>
@@ -3553,7 +3559,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
@@ -3562,10 +3568,10 @@
         <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="E89" t="s">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
@@ -3579,7 +3585,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
@@ -3588,7 +3594,7 @@
         <v>17</v>
       </c>
       <c r="D90" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="E90" t="s">
         <v>12</v>
@@ -3601,35 +3607,61 @@
       </c>
       <c r="H90" t="s">
         <v>17</v>
-      </c>
-      <c r="I90" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="F91" t="s">
         <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>240</v>
+        <v>17</v>
+      </c>
+      <c r="I91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" t="s">
+        <v>201</v>
+      </c>
+      <c r="E92" t="s">
+        <v>133</v>
+      </c>
+      <c r="F92" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
